--- a/Lapsim/sweeps/Weight_Sweep.xlsx
+++ b/Lapsim/sweeps/Weight_Sweep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsoni\Desktop\Projects\BFR\suspension\Lapsim\sweeps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2389211E-3076-4F75-AA19-16A9E38CBE1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD37408-AF1F-4B57-9F53-99DC7D8A9B29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="7212" xr2:uid="{6BA9E107-352A-41C7-8731-E0008EEB337F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Skidpad</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data from ParamSweep in Lapsim\Sweeps. Outputs point values for all events for a change in car weight. </t>
+  </si>
+  <si>
+    <t>Sweep 2</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D63482-9405-429B-9CB9-971B845139AF}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -709,11 +712,134 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>247.2</v>
+      </c>
+      <c r="B9">
+        <v>53.143909353879586</v>
+      </c>
+      <c r="C9">
+        <v>16.66747709722296</v>
+      </c>
+      <c r="D9">
+        <v>116.8245473110546</v>
+      </c>
+      <c r="E9">
+        <v>192.23069489580027</v>
+      </c>
+      <c r="F9">
+        <v>378.86662865795745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>254.45999999999998</v>
+      </c>
+      <c r="B10">
+        <v>52.442632277845377</v>
+      </c>
+      <c r="C10">
+        <v>13.274699265306873</v>
+      </c>
+      <c r="D10">
+        <v>116.47559406254079</v>
+      </c>
+      <c r="E10">
+        <v>190.85357867724318</v>
+      </c>
+      <c r="F10">
+        <v>373.04650428293621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>261.72000000000003</v>
+      </c>
+      <c r="B11">
+        <v>51.778738482060859</v>
+      </c>
+      <c r="C11">
+        <v>9.9745995039718487</v>
+      </c>
+      <c r="D11">
+        <v>115.54713195467721</v>
+      </c>
+      <c r="E11">
+        <v>188.93034344153901</v>
+      </c>
+      <c r="F11">
+        <v>366.23081338224893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>268.98</v>
+      </c>
+      <c r="B12">
+        <v>51.148843426335574</v>
+      </c>
+      <c r="C12">
+        <v>6.7701867796352913</v>
+      </c>
+      <c r="D12">
+        <v>114.8788406037509</v>
+      </c>
+      <c r="E12">
+        <v>187.42810634061212</v>
+      </c>
+      <c r="F12">
+        <v>360.22597715033385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>276.24</v>
+      </c>
+      <c r="B13">
+        <v>50.549913567419885</v>
+      </c>
+      <c r="C13">
+        <v>4.5</v>
+      </c>
+      <c r="D13">
+        <v>114.10480805144225</v>
+      </c>
+      <c r="E13">
+        <v>185.86808866426369</v>
+      </c>
+      <c r="F13">
+        <v>355.02281028312586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>283.5</v>
+      </c>
+      <c r="B14">
+        <v>49.979219346439521</v>
+      </c>
+      <c r="C14">
+        <v>4.5</v>
+      </c>
+      <c r="D14">
+        <v>113.49235018235143</v>
+      </c>
+      <c r="E14">
+        <v>184.61720355167844</v>
+      </c>
+      <c r="F14">
+        <v>352.58877308046942</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -729,7 +855,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+      <selection activeCell="G1" sqref="G1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -740,8 +866,17 @@
     <col min="4" max="4" width="5.47265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.05078125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="36" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="28" max="42" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
